--- a/data/personajes.xlsx
+++ b/data/personajes.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OdooCDev\custom\genshin_impact\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OdooCDev\custom\genshin_impact\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4268D05A-F294-45C2-9790-5AFEEAAE5186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBF6EBF-36F6-4297-B730-D48FB4799619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$L$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -195,39 +198,6 @@
     <t>Yae Miko (5★)</t>
   </si>
   <si>
-    <t>electro</t>
-  </si>
-  <si>
-    <t>bow</t>
-  </si>
-  <si>
-    <t>pyro</t>
-  </si>
-  <si>
-    <t>hydro</t>
-  </si>
-  <si>
-    <t>cryo</t>
-  </si>
-  <si>
-    <t>geo</t>
-  </si>
-  <si>
-    <t>anemo</t>
-  </si>
-  <si>
-    <t>claymore</t>
-  </si>
-  <si>
-    <t>polearm</t>
-  </si>
-  <si>
-    <t>sword</t>
-  </si>
-  <si>
-    <t>catalyst</t>
-  </si>
-  <si>
     <t>basic_attack_talent</t>
   </si>
   <si>
@@ -235,6 +205,39 @@
   </si>
   <si>
     <t>elemental_burst_talent</t>
+  </si>
+  <si>
+    <t>Anemo</t>
+  </si>
+  <si>
+    <t>Cryo</t>
+  </si>
+  <si>
+    <t>Electro</t>
+  </si>
+  <si>
+    <t>Geo</t>
+  </si>
+  <si>
+    <t>Hydro</t>
+  </si>
+  <si>
+    <t>Pyro</t>
+  </si>
+  <si>
+    <t>Bow</t>
+  </si>
+  <si>
+    <t>Catalyst</t>
+  </si>
+  <si>
+    <t>Claymore</t>
+  </si>
+  <si>
+    <t>Polearm</t>
+  </si>
+  <si>
+    <t>Sword</t>
   </si>
 </sst>
 </file>
@@ -563,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22.42578125" defaultRowHeight="15"/>
@@ -581,7 +584,7 @@
     <col min="10" max="10" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -604,80 +607,80 @@
         <v>50</v>
       </c>
       <c r="H1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="I1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D2">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>82</v>
+      </c>
+      <c r="E3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3">
         <v>5</v>
       </c>
-      <c r="I2">
-        <v>9</v>
-      </c>
-      <c r="J2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>90</v>
-      </c>
-      <c r="E3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-      <c r="I3">
-        <v>8</v>
-      </c>
-      <c r="J3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -685,258 +688,255 @@
         <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="D5">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
         <v>60</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>90</v>
+      </c>
+      <c r="E6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6">
         <v>3</v>
       </c>
-      <c r="I5">
+      <c r="H6">
         <v>5</v>
       </c>
-      <c r="J5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>87</v>
-      </c>
-      <c r="E6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6">
-        <v>6</v>
-      </c>
       <c r="I6">
+        <v>9</v>
+      </c>
+      <c r="J6">
         <v>8</v>
       </c>
-      <c r="J6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D7">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F7" t="s">
         <v>65</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>9</v>
-      </c>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="D8">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
         <v>64</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>4</v>
-      </c>
-      <c r="I8">
-        <v>5</v>
-      </c>
-      <c r="J8">
-        <v>6</v>
-      </c>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <v>84</v>
-      </c>
-      <c r="E9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>5</v>
-      </c>
-      <c r="I9">
-        <v>5</v>
-      </c>
-      <c r="J9">
-        <v>6</v>
-      </c>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10">
-        <v>80</v>
-      </c>
-      <c r="E10" t="s">
-        <v>56</v>
       </c>
       <c r="F10" t="s">
         <v>65</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D11">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -944,31 +944,31 @@
         <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
         <v>2</v>
       </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
       <c r="I12">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J12">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -976,63 +976,63 @@
         <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E13" t="s">
         <v>61</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="D14">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -1040,10 +1040,10 @@
         <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D15">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
         <v>62</v>
@@ -1052,19 +1052,19 @@
         <v>66</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H15">
         <v>2</v>
       </c>
       <c r="I15">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -1072,141 +1072,141 @@
         <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>8</v>
+      </c>
+      <c r="J16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17">
+        <v>50</v>
+      </c>
+      <c r="E17" t="s">
         <v>63</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>2</v>
-      </c>
-      <c r="I16">
+      <c r="F17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19">
+        <v>30</v>
+      </c>
+      <c r="E19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
         <v>4</v>
       </c>
-      <c r="J16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17">
-        <v>60</v>
-      </c>
-      <c r="E17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="J19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
         <v>64</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>4</v>
-      </c>
-      <c r="I17">
-        <v>6</v>
-      </c>
-      <c r="J17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18">
-        <v>85</v>
-      </c>
-      <c r="E18" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>2</v>
-      </c>
-      <c r="I18">
-        <v>4</v>
-      </c>
-      <c r="J18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19">
-        <v>70</v>
-      </c>
-      <c r="E19" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>2</v>
-      </c>
-      <c r="J19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20">
-        <v>50</v>
-      </c>
-      <c r="E20" t="s">
-        <v>59</v>
       </c>
       <c r="F20" t="s">
         <v>66</v>
@@ -1224,7 +1224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -1232,159 +1232,160 @@
         <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D21">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>88</v>
+      </c>
+      <c r="E22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
+      <c r="J22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>84</v>
+      </c>
+      <c r="E23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+      <c r="J23">
+        <v>6</v>
+      </c>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>82</v>
+      </c>
+      <c r="E24" t="s">
         <v>61</v>
       </c>
-      <c r="F21" t="s">
-        <v>66</v>
-      </c>
-      <c r="G21">
+      <c r="F24" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24">
+        <v>6</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24">
+        <v>8</v>
+      </c>
+      <c r="J24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25">
+        <v>70</v>
+      </c>
+      <c r="E25" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>2</v>
-      </c>
-      <c r="H21">
-        <v>2</v>
-      </c>
-      <c r="I21">
-        <v>2</v>
-      </c>
-      <c r="J21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22">
-        <v>40</v>
-      </c>
-      <c r="E22" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" t="s">
-        <v>66</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>2</v>
-      </c>
-      <c r="I22">
-        <v>2</v>
-      </c>
-      <c r="J22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23">
-        <v>40</v>
-      </c>
-      <c r="E23" t="s">
-        <v>58</v>
-      </c>
-      <c r="F23" t="s">
-        <v>57</v>
-      </c>
-      <c r="G23">
-        <v>2</v>
-      </c>
-      <c r="H23">
-        <v>2</v>
-      </c>
-      <c r="I23">
-        <v>2</v>
-      </c>
-      <c r="J23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24">
-        <v>30</v>
-      </c>
-      <c r="E24" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" t="s">
-        <v>65</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25">
-        <v>30</v>
-      </c>
-      <c r="E25" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" t="s">
-        <v>66</v>
-      </c>
-      <c r="G25">
-        <v>3</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
       </c>
       <c r="I25">
         <v>4</v>
       </c>
       <c r="J25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -1392,159 +1393,159 @@
         <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D26">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="E26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F26" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I26">
+        <v>8</v>
+      </c>
+      <c r="J26">
         <v>4</v>
       </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>90</v>
+      </c>
+      <c r="E28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>6</v>
+      </c>
+      <c r="I28">
+        <v>7</v>
+      </c>
+      <c r="J28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" t="s">
         <v>26</v>
-      </c>
-      <c r="D27">
-        <v>20</v>
-      </c>
-      <c r="E27" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28">
-        <v>20</v>
-      </c>
-      <c r="E28" t="s">
-        <v>60</v>
-      </c>
-      <c r="F28" t="s">
-        <v>64</v>
-      </c>
-      <c r="G28">
-        <v>2</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" t="s">
-        <v>28</v>
       </c>
       <c r="D29">
         <v>20</v>
       </c>
       <c r="E29" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30">
         <v>60</v>
       </c>
-      <c r="F29" t="s">
-        <v>57</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
       <c r="E30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F30" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -1552,19 +1553,19 @@
         <v>53</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F31" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -1576,7 +1577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -1584,7 +1585,7 @@
         <v>54</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -1593,7 +1594,7 @@
         <v>60</v>
       </c>
       <c r="F32" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1608,56 +1609,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
         <v>53</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="E33" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F33" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
         <v>53</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="E34" t="s">
         <v>62</v>
       </c>
       <c r="F34" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1666,13 +1667,13 @@
         <v>1</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
         <v>53</v>
       </c>
@@ -1680,16 +1681,16 @@
         <v>54</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F35" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1704,120 +1705,121 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
         <v>53</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="E36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F36" t="s">
+        <v>68</v>
+      </c>
+      <c r="G36">
+        <v>5</v>
+      </c>
+      <c r="H36">
+        <v>6</v>
+      </c>
+      <c r="I36">
+        <v>8</v>
+      </c>
+      <c r="J36">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37">
+        <v>85</v>
+      </c>
+      <c r="E37" t="s">
+        <v>64</v>
+      </c>
+      <c r="F37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>4</v>
+      </c>
+      <c r="I37">
+        <v>5</v>
+      </c>
+      <c r="J37">
+        <v>6</v>
+      </c>
+      <c r="L37" s="1"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>64</v>
+      </c>
+      <c r="F38" t="s">
+        <v>68</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39">
+        <v>30</v>
+      </c>
+      <c r="E39" t="s">
         <v>59</v>
       </c>
-      <c r="F36" t="s">
-        <v>57</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-      <c r="J36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37" t="s">
-        <v>61</v>
-      </c>
-      <c r="F37" t="s">
-        <v>65</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-      <c r="J37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" t="s">
-        <v>37</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38" t="s">
-        <v>60</v>
-      </c>
-      <c r="F38" t="s">
-        <v>57</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
-      <c r="J38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" t="s">
-        <v>38</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39" t="s">
-        <v>62</v>
-      </c>
       <c r="F39" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -1832,7 +1834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:12">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -1840,63 +1842,63 @@
         <v>54</v>
       </c>
       <c r="C40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40" t="s">
+        <v>69</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41">
+        <v>25</v>
+      </c>
+      <c r="E41" t="s">
         <v>60</v>
       </c>
-      <c r="F40" t="s">
-        <v>65</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
-      <c r="J40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" t="s">
-        <v>53</v>
-      </c>
-      <c r="B41" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" t="s">
-        <v>40</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41" t="s">
-        <v>58</v>
-      </c>
       <c r="F41" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -1904,16 +1906,16 @@
         <v>54</v>
       </c>
       <c r="C42" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F42" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -1928,7 +1930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -1936,16 +1938,16 @@
         <v>54</v>
       </c>
       <c r="C43" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F43" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -1960,39 +1962,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
         <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C44" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="E44" t="s">
         <v>61</v>
       </c>
       <c r="F44" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
         <v>53</v>
       </c>
@@ -2000,7 +2002,7 @@
         <v>54</v>
       </c>
       <c r="C45" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -2009,7 +2011,7 @@
         <v>61</v>
       </c>
       <c r="F45" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -2024,7 +2026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -2032,95 +2034,101 @@
         <v>54</v>
       </c>
       <c r="C46" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F46" t="s">
+        <v>69</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47">
+        <v>85</v>
+      </c>
+      <c r="E47" t="s">
+        <v>63</v>
+      </c>
+      <c r="F47" t="s">
+        <v>69</v>
+      </c>
+      <c r="G47">
+        <v>4</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47">
+        <v>6</v>
+      </c>
+      <c r="J47">
+        <v>9</v>
+      </c>
+      <c r="L47" s="1"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48">
+        <v>80</v>
+      </c>
+      <c r="E48" t="s">
         <v>64</v>
       </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
-      <c r="J46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" t="s">
-        <v>53</v>
-      </c>
-      <c r="B47" t="s">
-        <v>54</v>
-      </c>
-      <c r="C47" t="s">
-        <v>46</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47" t="s">
-        <v>60</v>
-      </c>
-      <c r="F47" t="s">
-        <v>64</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>1</v>
-      </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
-      <c r="J47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48" t="s">
-        <v>55</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48" t="s">
-        <v>56</v>
-      </c>
       <c r="F48" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J48">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L48">
+      <sortCondition ref="F1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>

--- a/data/personajes.xlsx
+++ b/data/personajes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OdooCDev\custom\genshin_impact\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBF6EBF-36F6-4297-B730-D48FB4799619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148BC759-7F81-4670-BDF1-C280C5EB1AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$L$48</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22.42578125" defaultRowHeight="15"/>
@@ -621,16 +621,16 @@
         <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s">
         <v>65</v>
@@ -656,28 +656,28 @@
         <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -688,19 +688,19 @@
         <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4">
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -720,13 +720,13 @@
         <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F5" t="s">
         <v>65</v>
@@ -749,31 +749,31 @@
         <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D6">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F6" t="s">
         <v>65</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -784,13 +784,13 @@
         <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F7" t="s">
         <v>65</v>
@@ -816,13 +816,13 @@
         <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F8" t="s">
         <v>65</v>
@@ -848,13 +848,13 @@
         <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -877,31 +877,31 @@
         <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="D10">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -912,16 +912,16 @@
         <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -941,31 +941,31 @@
         <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D12">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F12" t="s">
         <v>66</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -973,31 +973,31 @@
         <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D13">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1008,16 +1008,16 @@
         <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1037,31 +1037,31 @@
         <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D15">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E15" t="s">
         <v>62</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1069,51 +1069,51 @@
         <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="D16">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D17">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1128,7 +1128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -1136,16 +1136,16 @@
         <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F18" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1160,39 +1160,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D19">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F19" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -1200,77 +1200,77 @@
         <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
         <v>64</v>
-      </c>
-      <c r="F20" t="s">
-        <v>66</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" t="s">
-        <v>67</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22">
-        <v>88</v>
-      </c>
-      <c r="E22" t="s">
-        <v>60</v>
       </c>
       <c r="F22" t="s">
         <v>67</v>
@@ -1279,16 +1279,16 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -1296,32 +1296,31 @@
         <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D23">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="E23" t="s">
         <v>60</v>
       </c>
       <c r="F23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>6</v>
-      </c>
-      <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -1329,31 +1328,31 @@
         <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D24">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F24" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G24">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -1361,31 +1360,31 @@
         <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D25">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E25" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <v>4</v>
       </c>
       <c r="J25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -1393,127 +1392,127 @@
         <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D26">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="E26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27">
+        <v>40</v>
+      </c>
+      <c r="E27" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28">
+        <v>40</v>
+      </c>
+      <c r="E28" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29">
+        <v>50</v>
+      </c>
+      <c r="E29" t="s">
         <v>62</v>
       </c>
-      <c r="F26" t="s">
-        <v>67</v>
-      </c>
-      <c r="G26">
-        <v>3</v>
-      </c>
-      <c r="H26">
-        <v>4</v>
-      </c>
-      <c r="I26">
-        <v>8</v>
-      </c>
-      <c r="J26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28">
-        <v>90</v>
-      </c>
-      <c r="E28" t="s">
-        <v>64</v>
-      </c>
-      <c r="F28" t="s">
-        <v>67</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>6</v>
-      </c>
-      <c r="I28">
-        <v>7</v>
-      </c>
-      <c r="J28">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29">
-        <v>20</v>
-      </c>
-      <c r="E29" t="s">
-        <v>64</v>
-      </c>
       <c r="F29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -1521,92 +1520,92 @@
         <v>53</v>
       </c>
       <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30">
+        <v>50</v>
+      </c>
+      <c r="E30" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" t="s">
         <v>16</v>
       </c>
-      <c r="D30">
+      <c r="D31">
         <v>60</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E31" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>68</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>4</v>
-      </c>
-      <c r="I30">
-        <v>6</v>
-      </c>
-      <c r="J30">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31">
-        <v>20</v>
-      </c>
-      <c r="E31" t="s">
-        <v>60</v>
       </c>
       <c r="F31" t="s">
         <v>68</v>
       </c>
       <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>4</v>
+      </c>
+      <c r="I31">
+        <v>6</v>
+      </c>
+      <c r="J31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32">
+        <v>70</v>
+      </c>
+      <c r="E32" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
         <v>2</v>
       </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32" t="s">
-        <v>60</v>
-      </c>
-      <c r="F32" t="s">
-        <v>68</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
       <c r="I32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1617,13 +1616,13 @@
         <v>53</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D33">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F33" t="s">
         <v>68</v>
@@ -1632,13 +1631,13 @@
         <v>0</v>
       </c>
       <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
         <v>2</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>4</v>
-      </c>
-      <c r="J33">
-        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1649,28 +1648,28 @@
         <v>53</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D34">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E34" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J34">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1678,31 +1677,31 @@
         <v>53</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="E35" t="s">
         <v>62</v>
       </c>
       <c r="F35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1713,28 +1712,28 @@
         <v>53</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D36">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E36" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F36" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G36">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H36">
+        <v>3</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
+      </c>
+      <c r="J36">
         <v>6</v>
-      </c>
-      <c r="I36">
-        <v>8</v>
-      </c>
-      <c r="J36">
-        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1745,30 +1744,29 @@
         <v>53</v>
       </c>
       <c r="C37" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D37">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E37" t="s">
         <v>64</v>
       </c>
       <c r="F37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I37">
         <v>5</v>
       </c>
       <c r="J37">
-        <v>6</v>
-      </c>
-      <c r="L37" s="1"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" t="s">
@@ -1778,28 +1776,28 @@
         <v>53</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="E38" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F38" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -1810,28 +1808,28 @@
         <v>53</v>
       </c>
       <c r="C39" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D39">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="E39" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F39" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -1839,32 +1837,33 @@
         <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C40" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="E40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F40" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J40">
-        <v>1</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="L40" s="1"/>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" t="s">
@@ -1874,28 +1873,28 @@
         <v>53</v>
       </c>
       <c r="C41" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D41">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="E41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
         <v>2</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
       </c>
       <c r="I41">
         <v>4</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -1903,64 +1902,66 @@
         <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="E42" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J42">
-        <v>1</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="L42" s="1"/>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="E43" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F43" t="s">
         <v>69</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J43">
-        <v>1</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="L43" s="1"/>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" t="s">
@@ -1970,28 +1971,28 @@
         <v>53</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D44">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E44" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G44">
+        <v>5</v>
+      </c>
+      <c r="H44">
         <v>6</v>
       </c>
-      <c r="H44">
-        <v>3</v>
-      </c>
       <c r="I44">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J44">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -1999,31 +2000,31 @@
         <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="E45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F45" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J45">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2031,31 +2032,31 @@
         <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="E46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F46" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J46">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2066,30 +2067,29 @@
         <v>53</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D47">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E47" t="s">
         <v>63</v>
       </c>
       <c r="F47" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I47">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J47">
-        <v>9</v>
-      </c>
-      <c r="L47" s="1"/>
+        <v>11</v>
+      </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
@@ -2099,36 +2099,32 @@
         <v>53</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D48">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E48" t="s">
         <v>64</v>
       </c>
       <c r="F48" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G48">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I48">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J48">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L48">
-      <sortCondition ref="F1"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:L48" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
